--- a/src/main/webapp/sql/import_excel/항공사 목록.xlsx
+++ b/src/main/webapp/sql/import_excel/항공사 목록.xlsx
@@ -11,7 +11,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>FI_ID</t>
+  </si>
+  <si>
+    <t>FI_NM</t>
+  </si>
+  <si>
+    <t>FI_LOGO</t>
+  </si>
   <si>
     <t>대한항공</t>
   </si>
@@ -117,91 +126,102 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1">
-        <v>1.0</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
         <v>10.0</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
